--- a/data/relevant frame selection/relevant_predicates_pilot_df.xlsx
+++ b/data/relevant frame selection/relevant_predicates_pilot_df.xlsx
@@ -9716,8 +9716,8 @@
   </sheetPr>
   <dimension ref="A1:L1055"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B455" activeCellId="0" sqref="B455"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A302" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B318" activeCellId="0" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
